--- a/biology/Botanique/Forêt_de_Haute-Sève/Forêt_de_Haute-Sève.xlsx
+++ b/biology/Botanique/Forêt_de_Haute-Sève/Forêt_de_Haute-Sève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Haute-S%C3%A8ve</t>
+          <t>Forêt_de_Haute-Sève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Forêt de Haute-Sève (ou Forêt de Saint-Aubin-du-Cormier ou Forêt domaniale de Saint-Aubin-du-Cormier) est une forêt française située sur les communes de Saint-Aubin-du-Cormier et de Mézières-sur-Couesnon dans le département d'Ille-et-Vilaine, en Bretagne. Elle a une surface de 843 ha[5] et est gérée par l'Office national des forêts (ONF)[6].
+La Forêt de Haute-Sève (ou Forêt de Saint-Aubin-du-Cormier ou Forêt domaniale de Saint-Aubin-du-Cormier) est une forêt française située sur les communes de Saint-Aubin-du-Cormier et de Mézières-sur-Couesnon dans le département d'Ille-et-Vilaine, en Bretagne. Elle a une surface de 843 ha et est gérée par l'Office national des forêts (ONF).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Haute-S%C3%A8ve</t>
+          <t>Forêt_de_Haute-Sève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt, longue de 6 kilomètres et large de 1,5 kilomètre est divisée en trois cantons : La Rencontre, Le Rocher-du-Parc et Les Jubeauderies. Elle comprend trois routes forestières : la route forestière de Moroval à Saint-Fiacre, la route forestière du Rocher-Guichon et la route forestière de Charrière-Fleurie ainsi que deux maisons forestières : le Rocher-du-Parc et les Jubeauderies.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Haute-S%C3%A8ve</t>
+          <t>Forêt_de_Haute-Sève</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de Haute Sève constitue avec l'étang d'Ouée tout proche ainsi qu'avec les forêts de Rennes, Liffré et de Chevré un ensemble naturel protégé au titre du classement Natura 2000[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de Haute Sève constitue avec l'étang d'Ouée tout proche ainsi qu'avec les forêts de Rennes, Liffré et de Chevré un ensemble naturel protégé au titre du classement Natura 2000.
 On y rencontre plusieurs fontaines dont la fontaine minérale d’où coule une eau ferrugineuse.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Haute-S%C3%A8ve</t>
+          <t>Forêt_de_Haute-Sève</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Lieux et monuments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt abrite un ensemble de menhirs situés au sud du chemin central, dans les coupes 48 à 54. Cinq d'entre eux sont classés monuments historiques[7]. On trouve également dans la forêt les vestiges d'un probable alignement mégalithique[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt abrite un ensemble de menhirs situés au sud du chemin central, dans les coupes 48 à 54. Cinq d'entre eux sont classés monuments historiques. On trouve également dans la forêt les vestiges d'un probable alignement mégalithique.
 L'occupation gallo-romaine du site est avérée par la découverte du site artisanal de la Tournerie et par la présence d'un probable itinéraire antique en bordure est du massif.
 Vers le XVIIIe siècle av. J.-C., les bois furent peuplés de bûcherons, charbonniers, sabotiers et forgerons. Depuis l'époque contemporaine, la forêt est traversée par la conduite d’adduction d'eau de la ville de Rennes.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Haute-S%C3%A8ve</t>
+          <t>Forêt_de_Haute-Sève</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>La forêt de Haute Sève dans la littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Vercel a décrit la forêt de Haute Sève "célèbre par ses beaux chênes, ses collines rocheuses et ses menhirs"[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Vercel a décrit la forêt de Haute Sève "célèbre par ses beaux chênes, ses collines rocheuses et ses menhirs".
 De son côté, Paul Féval y a vu "les cabanes fumeuses où le maillet fait un tapage éternel".
 </t>
         </is>
